--- a/lut_generator_E12_1K1M.xlsx
+++ b/lut_generator_E12_1K1M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-quantizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D000F13-9C2D-4260-A62A-2D8B30F65D9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49475E97-24F6-44AC-89C3-FDB66B7841E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="0" windowWidth="36500" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
+    <workbookView xWindow="7810" yWindow="0" windowWidth="36500" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,16 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -479,6 +470,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52672B51-097A-4F0D-94C8-36FB4DE8AA5D}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,29 +829,29 @@
     <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="22" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="22" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:16" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
@@ -944,9 +944,9 @@
         <v xml:space="preserve">28, </v>
       </c>
       <c r="O5" s="19"/>
-      <c r="P5" s="26" t="str">
-        <f>"const uint"&amp;$C$8*8&amp;"_t "&amp;"lut_"&amp;$C$6&amp;"["&amp;COUNT($J:$J)+COUNT($L:$L)&amp;"] PROGMEM ="&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;_xlfn.CONCAT($M:$M)&amp;CHAR(10)&amp;CHAR(10)&amp;_xlfn.CONCAT($N:$N)&amp;"};"</f>
-        <v>const uint8_t lut_E12_1K1M[48] PROGMEM =
+      <c r="P5" s="23" t="str">
+        <f>"const __flash uint"&amp;$C$8*8&amp;"_t "&amp;"lut"&amp;$C$8&amp;"d"&amp;$C$7&amp;"_"&amp;$C$6&amp;"["&amp;COUNT($J:$J)+COUNT($L:$L)&amp;"] ="&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;_xlfn.CONCAT($M:$M)&amp;CHAR(10)&amp;CHAR(10)&amp;_xlfn.CONCAT($N:$N)&amp;"};"</f>
+        <v>const __flash uint8_t lut1d2_E12_1K1M[48] =
 {
 // header
 10, 22, 25, 29, 33, 36, 40, 44, 47, 48, 
@@ -1012,7 +1012,7 @@
         <v xml:space="preserve">34, </v>
       </c>
       <c r="O6" s="19"/>
-      <c r="P6" s="27"/>
+      <c r="P6" s="24"/>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
@@ -1063,7 +1063,7 @@
         <v xml:space="preserve">42, </v>
       </c>
       <c r="O7" s="19"/>
-      <c r="P7" s="27"/>
+      <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
@@ -1114,7 +1114,7 @@
         <v xml:space="preserve">52, </v>
       </c>
       <c r="O8" s="19"/>
-      <c r="P8" s="27"/>
+      <c r="P8" s="24"/>
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
@@ -1165,7 +1165,7 @@
         <v xml:space="preserve">63, </v>
       </c>
       <c r="O9" s="19"/>
-      <c r="P9" s="27"/>
+      <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
@@ -1212,7 +1212,7 @@
         <v xml:space="preserve">77, </v>
       </c>
       <c r="O10" s="19"/>
-      <c r="P10" s="27"/>
+      <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
@@ -1259,14 +1259,14 @@
         <v xml:space="preserve">94, </v>
       </c>
       <c r="O11" s="19"/>
-      <c r="P11" s="27"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="7"/>
       <c r="E12" s="20">
         <v>3300</v>
@@ -1308,7 +1308,7 @@
         <v xml:space="preserve">113, </v>
       </c>
       <c r="O12" s="19"/>
-      <c r="P12" s="27"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
@@ -1360,7 +1360,7 @@
         <v xml:space="preserve">134, </v>
       </c>
       <c r="O13" s="19"/>
-      <c r="P13" s="27"/>
+      <c r="P13" s="24"/>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
@@ -1407,14 +1407,14 @@
         <v xml:space="preserve">161, </v>
       </c>
       <c r="O14" s="19"/>
-      <c r="P14" s="27"/>
+      <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="7"/>
       <c r="E15" s="20">
         <v>5600</v>
@@ -1456,13 +1456,13 @@
         <v xml:space="preserve">194, </v>
       </c>
       <c r="O15" s="19"/>
-      <c r="P15" s="27"/>
+      <c r="P15" s="24"/>
     </row>
     <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
-      <c r="B16" s="28" t="str">
+      <c r="B16" s="25" t="str">
         <f>$P$5</f>
-        <v>const uint8_t lut_E12_1K1M[48] PROGMEM =
+        <v>const __flash uint8_t lut1d2_E12_1K1M[48] =
 {
 // header
 10, 22, 25, 29, 33, 36, 40, 44, 47, 48, 
@@ -1478,7 +1478,7 @@
 134, 
 };</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="7"/>
       <c r="E16" s="20">
         <v>6800</v>
@@ -1521,7 +1521,7 @@
 </v>
       </c>
       <c r="O16" s="19"/>
-      <c r="P16" s="27"/>
+      <c r="P16" s="24"/>
     </row>
     <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
@@ -1568,7 +1568,7 @@
         <v xml:space="preserve">142, </v>
       </c>
       <c r="O17" s="19"/>
-      <c r="P17" s="27"/>
+      <c r="P17" s="24"/>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
@@ -1615,7 +1615,7 @@
         <v xml:space="preserve">172, </v>
       </c>
       <c r="O18" s="19"/>
-      <c r="P18" s="27"/>
+      <c r="P18" s="24"/>
     </row>
     <row r="19" spans="1:16" s="2" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
@@ -1663,7 +1663,7 @@
 </v>
       </c>
       <c r="O19" s="19"/>
-      <c r="P19" s="27"/>
+      <c r="P19" s="24"/>
     </row>
     <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
@@ -1710,7 +1710,7 @@
         <v xml:space="preserve">129, </v>
       </c>
       <c r="O20" s="19"/>
-      <c r="P20" s="27"/>
+      <c r="P20" s="24"/>
     </row>
     <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
@@ -1757,7 +1757,7 @@
         <v xml:space="preserve">156, </v>
       </c>
       <c r="O21" s="19"/>
-      <c r="P21" s="27"/>
+      <c r="P21" s="24"/>
     </row>
     <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
@@ -1804,7 +1804,7 @@
         <v xml:space="preserve">191, </v>
       </c>
       <c r="O22" s="19"/>
-      <c r="P22" s="27"/>
+      <c r="P22" s="24"/>
     </row>
     <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
@@ -1852,7 +1852,7 @@
 </v>
       </c>
       <c r="O23" s="19"/>
-      <c r="P23" s="27"/>
+      <c r="P23" s="24"/>
     </row>
     <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
@@ -1899,7 +1899,7 @@
         <v xml:space="preserve">141, </v>
       </c>
       <c r="O24" s="19"/>
-      <c r="P24" s="27"/>
+      <c r="P24" s="24"/>
     </row>
     <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
@@ -1946,7 +1946,7 @@
         <v xml:space="preserve">168, </v>
       </c>
       <c r="O25" s="19"/>
-      <c r="P25" s="27"/>
+      <c r="P25" s="24"/>
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
@@ -1993,7 +1993,7 @@
         <v xml:space="preserve">201, </v>
       </c>
       <c r="O26" s="19"/>
-      <c r="P26" s="27"/>
+      <c r="P26" s="24"/>
     </row>
     <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
@@ -2041,7 +2041,7 @@
 </v>
       </c>
       <c r="O27" s="19"/>
-      <c r="P27" s="27"/>
+      <c r="P27" s="24"/>
     </row>
     <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
@@ -2088,7 +2088,7 @@
         <v xml:space="preserve">146, </v>
       </c>
       <c r="O28" s="19"/>
-      <c r="P28" s="27"/>
+      <c r="P28" s="24"/>
     </row>
     <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
@@ -2135,7 +2135,7 @@
         <v xml:space="preserve">178, </v>
       </c>
       <c r="O29" s="19"/>
-      <c r="P29" s="27"/>
+      <c r="P29" s="24"/>
     </row>
     <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
@@ -2183,7 +2183,7 @@
 </v>
       </c>
       <c r="O30" s="19"/>
-      <c r="P30" s="27"/>
+      <c r="P30" s="24"/>
     </row>
     <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
@@ -2230,7 +2230,7 @@
         <v xml:space="preserve">132, </v>
       </c>
       <c r="O31" s="19"/>
-      <c r="P31" s="27"/>
+      <c r="P31" s="24"/>
     </row>
     <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
@@ -2277,7 +2277,7 @@
         <v xml:space="preserve">161, </v>
       </c>
       <c r="O32" s="19"/>
-      <c r="P32" s="27"/>
+      <c r="P32" s="24"/>
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
@@ -2324,7 +2324,7 @@
         <v xml:space="preserve">195, </v>
       </c>
       <c r="O33" s="19"/>
-      <c r="P33" s="27"/>
+      <c r="P33" s="24"/>
       <c r="R33" s="21"/>
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2373,7 +2373,7 @@
 </v>
       </c>
       <c r="O34" s="19"/>
-      <c r="P34" s="27"/>
+      <c r="P34" s="24"/>
     </row>
     <row r="35" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
@@ -2420,7 +2420,7 @@
         <v xml:space="preserve">146, </v>
       </c>
       <c r="O35" s="19"/>
-      <c r="P35" s="27"/>
+      <c r="P35" s="24"/>
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
@@ -2467,7 +2467,7 @@
         <v xml:space="preserve">176, </v>
       </c>
       <c r="O36" s="19"/>
-      <c r="P36" s="27"/>
+      <c r="P36" s="24"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
@@ -2512,7 +2512,7 @@
         <v xml:space="preserve">210, </v>
       </c>
       <c r="O37" s="19"/>
-      <c r="P37" s="27"/>
+      <c r="P37" s="24"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
@@ -2558,7 +2558,7 @@
 </v>
       </c>
       <c r="O38" s="19"/>
-      <c r="P38" s="27"/>
+      <c r="P38" s="24"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
@@ -2603,7 +2603,7 @@
         <v xml:space="preserve">151, </v>
       </c>
       <c r="O39" s="19"/>
-      <c r="P39" s="27"/>
+      <c r="P39" s="24"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C40" s="7"/>
@@ -2647,7 +2647,7 @@
         <v xml:space="preserve">183, </v>
       </c>
       <c r="O40" s="19"/>
-      <c r="P40" s="27"/>
+      <c r="P40" s="24"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E41" s="20">
@@ -2691,7 +2691,7 @@
 </v>
       </c>
       <c r="O41" s="19"/>
-      <c r="P41" s="27"/>
+      <c r="P41" s="24"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E42" s="20">
@@ -2735,7 +2735,7 @@
 </v>
       </c>
       <c r="O42" s="19"/>
-      <c r="P42" s="27"/>
+      <c r="P42" s="24"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E43" s="20">
@@ -2751,7 +2751,7 @@
         <v xml:space="preserve">48, </v>
       </c>
       <c r="O43" s="19"/>
-      <c r="P43" s="27"/>
+      <c r="P43" s="24"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="H44" s="6"/>

--- a/lut_generator_E12_1K1M.xlsx
+++ b/lut_generator_E12_1K1M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-quantizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49475E97-24F6-44AC-89C3-FDB66B7841E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BAEED0-573C-4832-B6B4-3DA92951638B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7810" yWindow="0" windowWidth="36500" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
+    <workbookView xWindow="8790" yWindow="0" windowWidth="36500" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52672B51-097A-4F0D-94C8-36FB4DE8AA5D}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -940,7 +940,7 @@
         <v xml:space="preserve">10, </v>
       </c>
       <c r="N5" s="19" t="str">
-        <f>IF(J5&lt;&gt;"",J5&amp;", "&amp;IF($H5&lt;&gt;$H6,CHAR(10),""),"")</f>
+        <f>IF(J5&lt;&gt;"",J5&amp;", "&amp;IF($H5&lt;&gt;$H6,CHAR(10),""),256^$C$8-1&amp;CHAR(10))</f>
         <v xml:space="preserve">28, </v>
       </c>
       <c r="O5" s="19"/>
@@ -960,6 +960,7 @@
 146, 176, 210, 251, 
 151, 183, 222, 
 134, 
+255
 };</v>
       </c>
     </row>
@@ -1008,7 +1009,7 @@
         <v/>
       </c>
       <c r="N6" s="19" t="str">
-        <f t="shared" ref="N6:N41" si="8">IF(J6&lt;&gt;"",J6&amp;", "&amp;IF($H6&lt;&gt;$H7,CHAR(10),""),"")</f>
+        <f t="shared" ref="N6:N43" si="8">IF(J6&lt;&gt;"",J6&amp;", "&amp;IF($H6&lt;&gt;$H7,CHAR(10),""),256^$C$8-1&amp;CHAR(10))</f>
         <v xml:space="preserve">34, </v>
       </c>
       <c r="O6" s="19"/>
@@ -1476,6 +1477,7 @@
 146, 176, 210, 251, 
 151, 183, 222, 
 134, 
+255
 };</v>
       </c>
       <c r="C16" s="25"/>
@@ -2730,7 +2732,7 @@
         <v xml:space="preserve">47, </v>
       </c>
       <c r="N42" s="19" t="str">
-        <f t="shared" ref="N42" si="16">IF(J42&lt;&gt;"",J42&amp;", "&amp;IF($H42&lt;&gt;$H43,CHAR(10),""),"")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">134, 
 </v>
       </c>
@@ -2743,12 +2745,17 @@
       </c>
       <c r="H43" s="6"/>
       <c r="L43" s="6">
-        <f t="shared" ref="L43" si="17">IF($H42&lt;&gt;$H43,ROW($H43)-ROW($H$5),"")</f>
+        <f t="shared" ref="L43" si="16">IF($H42&lt;&gt;$H43,ROW($H43)-ROW($H$5),"")</f>
         <v>38</v>
       </c>
       <c r="M43" s="7" t="str">
         <f>IF(L43&lt;&gt;"",L43+COUNT(L:L)&amp;", ","")</f>
         <v xml:space="preserve">48, </v>
+      </c>
+      <c r="N43" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">255
+</v>
       </c>
       <c r="O43" s="19"/>
       <c r="P43" s="24"/>

--- a/lut_generator_E12_1K1M.xlsx
+++ b/lut_generator_E12_1K1M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-quantizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BAEED0-573C-4832-B6B4-3DA92951638B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F923C235-35BA-4970-80C0-0F57BC1BCC02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8790" yWindow="0" windowWidth="36500" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52672B51-097A-4F0D-94C8-36FB4DE8AA5D}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -945,8 +945,8 @@
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="23" t="str">
-        <f>"const __flash uint"&amp;$C$8*8&amp;"_t "&amp;"lut"&amp;$C$8&amp;"d"&amp;$C$7&amp;"_"&amp;$C$6&amp;"["&amp;COUNT($J:$J)+COUNT($L:$L)&amp;"] ="&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;_xlfn.CONCAT($M:$M)&amp;CHAR(10)&amp;CHAR(10)&amp;_xlfn.CONCAT($N:$N)&amp;"};"</f>
-        <v>const __flash uint8_t lut1d2_E12_1K1M[48] =
+        <f>"const __flash uint"&amp;$C$8*8&amp;"_t "&amp;"lut"&amp;$C$8&amp;"d"&amp;$C$7&amp;"_"&amp;$C$6&amp;"["&amp;COUNT($J:$J)+1+COUNT($L:$L)&amp;"] ="&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;_xlfn.CONCAT($M:$M)&amp;CHAR(10)&amp;CHAR(10)&amp;_xlfn.CONCAT($N:$N)&amp;"};"</f>
+        <v>const __flash uint8_t lut1d2_E12_1K1M[49] =
 {
 // header
 10, 22, 25, 29, 33, 36, 40, 44, 47, 48, 
@@ -1463,7 +1463,7 @@
       <c r="A16" s="7"/>
       <c r="B16" s="25" t="str">
         <f>$P$5</f>
-        <v>const __flash uint8_t lut1d2_E12_1K1M[48] =
+        <v>const __flash uint8_t lut1d2_E12_1K1M[49] =
 {
 // header
 10, 22, 25, 29, 33, 36, 40, 44, 47, 48, 

--- a/lut_generator_E12_1K1M.xlsx
+++ b/lut_generator_E12_1K1M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-quantizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F923C235-35BA-4970-80C0-0F57BC1BCC02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4D80A0-EB69-430B-9583-48A1AC3E3B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="0" windowWidth="36500" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
+    <workbookView xWindow="9770" yWindow="0" windowWidth="36500" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+      <selection activeCell="P5" sqref="P5:P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -945,8 +945,8 @@
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="23" t="str">
-        <f>"const __flash uint"&amp;$C$8*8&amp;"_t "&amp;"lut"&amp;$C$8&amp;"d"&amp;$C$7&amp;"_"&amp;$C$6&amp;"["&amp;COUNT($J:$J)+1+COUNT($L:$L)&amp;"] ="&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;_xlfn.CONCAT($M:$M)&amp;CHAR(10)&amp;CHAR(10)&amp;_xlfn.CONCAT($N:$N)&amp;"};"</f>
-        <v>const __flash uint8_t lut1d2_E12_1K1M[49] =
+        <f>"const __flash uint"&amp;$C$8*8&amp;"_t "&amp;"lut"&amp;$C$7*8&amp;"_"&amp;$C$6&amp;"["&amp;COUNT($J:$J)+1+COUNT($L:$L)&amp;"] ="&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;_xlfn.CONCAT($M:$M)&amp;CHAR(10)&amp;CHAR(10)&amp;_xlfn.CONCAT($N:$N)&amp;"};"</f>
+        <v>const __flash uint8_t lut16_E12_1K1M[49] =
 {
 // header
 10, 22, 25, 29, 33, 36, 40, 44, 47, 48, 
@@ -1463,7 +1463,7 @@
       <c r="A16" s="7"/>
       <c r="B16" s="25" t="str">
         <f>$P$5</f>
-        <v>const __flash uint8_t lut1d2_E12_1K1M[49] =
+        <v>const __flash uint8_t lut16_E12_1K1M[49] =
 {
 // header
 10, 22, 25, 29, 33, 36, 40, 44, 47, 48, 

--- a/lut_generator_E12_1K1M.xlsx
+++ b/lut_generator_E12_1K1M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-quantizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4D80A0-EB69-430B-9583-48A1AC3E3B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDCCF98-A360-4F22-8C35-6A678396DA76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9770" yWindow="0" windowWidth="36500" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52672B51-097A-4F0D-94C8-36FB4DE8AA5D}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:P43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -940,8 +940,8 @@
         <v xml:space="preserve">10, </v>
       </c>
       <c r="N5" s="19" t="str">
-        <f>IF(J5&lt;&gt;"",J5&amp;", "&amp;IF($H5&lt;&gt;$H6,CHAR(10),""),256^$C$8-1&amp;CHAR(10))</f>
-        <v xml:space="preserve">28, </v>
+        <f>IF(J5&lt;&gt;"",J5-1&amp;", "&amp;IF($H5&lt;&gt;$H6,CHAR(10),""),256^$C$8-1&amp;CHAR(10))</f>
+        <v xml:space="preserve">27, </v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="23" t="str">
@@ -951,15 +951,15 @@
 // header
 10, 22, 25, 29, 33, 36, 40, 44, 47, 48, 
 // data
-28, 34, 42, 52, 63, 77, 94, 113, 134, 161, 194, 234, 
-142, 172, 211, 
-129, 156, 191, 234, 
-141, 168, 201, 242, 
-146, 178, 215, 
-132, 161, 195, 239, 
-146, 176, 210, 251, 
-151, 183, 222, 
-134, 
+27, 33, 41, 51, 62, 76, 93, 112, 133, 160, 193, 233, 
+141, 171, 210, 
+128, 155, 190, 233, 
+140, 167, 200, 241, 
+145, 177, 214, 
+131, 160, 194, 238, 
+145, 175, 209, 250, 
+150, 182, 221, 
+133, 
 255
 };</v>
       </c>
@@ -1009,8 +1009,8 @@
         <v/>
       </c>
       <c r="N6" s="19" t="str">
-        <f t="shared" ref="N6:N43" si="8">IF(J6&lt;&gt;"",J6&amp;", "&amp;IF($H6&lt;&gt;$H7,CHAR(10),""),256^$C$8-1&amp;CHAR(10))</f>
-        <v xml:space="preserve">34, </v>
+        <f t="shared" ref="N6:N43" si="8">IF(J6&lt;&gt;"",J6-1&amp;", "&amp;IF($H6&lt;&gt;$H7,CHAR(10),""),256^$C$8-1&amp;CHAR(10))</f>
+        <v xml:space="preserve">33, </v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="24"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="N7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">42, </v>
+        <v xml:space="preserve">41, </v>
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="24"/>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="N8" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">52, </v>
+        <v xml:space="preserve">51, </v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="24"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="N9" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">63, </v>
+        <v xml:space="preserve">62, </v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="24"/>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="N10" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">77, </v>
+        <v xml:space="preserve">76, </v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="24"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">94, </v>
+        <v xml:space="preserve">93, </v>
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="24"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N12" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">113, </v>
+        <v xml:space="preserve">112, </v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="N13" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">134, </v>
+        <v xml:space="preserve">133, </v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="24"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="N14" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">161, </v>
+        <v xml:space="preserve">160, </v>
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="24"/>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="N15" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">194, </v>
+        <v xml:space="preserve">193, </v>
       </c>
       <c r="O15" s="19"/>
       <c r="P15" s="24"/>
@@ -1468,15 +1468,15 @@
 // header
 10, 22, 25, 29, 33, 36, 40, 44, 47, 48, 
 // data
-28, 34, 42, 52, 63, 77, 94, 113, 134, 161, 194, 234, 
-142, 172, 211, 
-129, 156, 191, 234, 
-141, 168, 201, 242, 
-146, 178, 215, 
-132, 161, 195, 239, 
-146, 176, 210, 251, 
-151, 183, 222, 
-134, 
+27, 33, 41, 51, 62, 76, 93, 112, 133, 160, 193, 233, 
+141, 171, 210, 
+128, 155, 190, 233, 
+140, 167, 200, 241, 
+145, 177, 214, 
+131, 160, 194, 238, 
+145, 175, 209, 250, 
+150, 182, 221, 
+133, 
 255
 };</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="N16" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">234, 
+        <v xml:space="preserve">233, 
 </v>
       </c>
       <c r="O16" s="19"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="N17" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">142, </v>
+        <v xml:space="preserve">141, </v>
       </c>
       <c r="O17" s="19"/>
       <c r="P17" s="24"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="N18" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">172, </v>
+        <v xml:space="preserve">171, </v>
       </c>
       <c r="O18" s="19"/>
       <c r="P18" s="24"/>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="N19" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">211, 
+        <v xml:space="preserve">210, 
 </v>
       </c>
       <c r="O19" s="19"/>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="N20" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">129, </v>
+        <v xml:space="preserve">128, </v>
       </c>
       <c r="O20" s="19"/>
       <c r="P20" s="24"/>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="N21" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">156, </v>
+        <v xml:space="preserve">155, </v>
       </c>
       <c r="O21" s="19"/>
       <c r="P21" s="24"/>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="N22" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">191, </v>
+        <v xml:space="preserve">190, </v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="24"/>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">234, 
+        <v xml:space="preserve">233, 
 </v>
       </c>
       <c r="O23" s="19"/>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">141, </v>
+        <v xml:space="preserve">140, </v>
       </c>
       <c r="O24" s="19"/>
       <c r="P24" s="24"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">168, </v>
+        <v xml:space="preserve">167, </v>
       </c>
       <c r="O25" s="19"/>
       <c r="P25" s="24"/>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="N26" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">201, </v>
+        <v xml:space="preserve">200, </v>
       </c>
       <c r="O26" s="19"/>
       <c r="P26" s="24"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="N27" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">242, 
+        <v xml:space="preserve">241, 
 </v>
       </c>
       <c r="O27" s="19"/>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="N28" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">146, </v>
+        <v xml:space="preserve">145, </v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28" s="24"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="N29" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">178, </v>
+        <v xml:space="preserve">177, </v>
       </c>
       <c r="O29" s="19"/>
       <c r="P29" s="24"/>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="N30" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">215, 
+        <v xml:space="preserve">214, 
 </v>
       </c>
       <c r="O30" s="19"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="N31" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">132, </v>
+        <v xml:space="preserve">131, </v>
       </c>
       <c r="O31" s="19"/>
       <c r="P31" s="24"/>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="N32" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">161, </v>
+        <v xml:space="preserve">160, </v>
       </c>
       <c r="O32" s="19"/>
       <c r="P32" s="24"/>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="N33" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">195, </v>
+        <v xml:space="preserve">194, </v>
       </c>
       <c r="O33" s="19"/>
       <c r="P33" s="24"/>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="N34" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">239, 
+        <v xml:space="preserve">238, 
 </v>
       </c>
       <c r="O34" s="19"/>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="N35" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">146, </v>
+        <v xml:space="preserve">145, </v>
       </c>
       <c r="O35" s="19"/>
       <c r="P35" s="24"/>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="N36" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">176, </v>
+        <v xml:space="preserve">175, </v>
       </c>
       <c r="O36" s="19"/>
       <c r="P36" s="24"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="N37" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">210, </v>
+        <v xml:space="preserve">209, </v>
       </c>
       <c r="O37" s="19"/>
       <c r="P37" s="24"/>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="N38" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">251, 
+        <v xml:space="preserve">250, 
 </v>
       </c>
       <c r="O38" s="19"/>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="N39" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">151, </v>
+        <v xml:space="preserve">150, </v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="24"/>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="N40" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">183, </v>
+        <v xml:space="preserve">182, </v>
       </c>
       <c r="O40" s="19"/>
       <c r="P40" s="24"/>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="N41" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">222, 
+        <v xml:space="preserve">221, 
 </v>
       </c>
       <c r="O41" s="19"/>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="N42" s="19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">134, 
+        <v xml:space="preserve">133, 
 </v>
       </c>
       <c r="O42" s="19"/>

--- a/lut_generator_E12_1K1M.xlsx
+++ b/lut_generator_E12_1K1M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-quantizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDCCF98-A360-4F22-8C35-6A678396DA76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E9374A-5A5F-4E99-9DC4-1F37869DA3A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9770" yWindow="0" windowWidth="36500" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
+    <workbookView xWindow="9770" yWindow="0" windowWidth="28630" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
